--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efnb2-Grm5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efnb2-Grm5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.969508</v>
+        <v>37.98277566666666</v>
       </c>
       <c r="H2">
-        <v>116.908524</v>
+        <v>113.948327</v>
       </c>
       <c r="I2">
-        <v>0.688733638790647</v>
+        <v>0.697850645410475</v>
       </c>
       <c r="J2">
-        <v>0.6887336387906469</v>
+        <v>0.6978506454104751</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.0006176666666666666</v>
+        <v>0.071834</v>
       </c>
       <c r="N2">
-        <v>0.001853</v>
+        <v>0.215502</v>
       </c>
       <c r="O2">
-        <v>0.008525223712359965</v>
+        <v>0.9835064532028698</v>
       </c>
       <c r="P2">
-        <v>0.008525223712359965</v>
+        <v>0.9835064532028697</v>
       </c>
       <c r="Q2">
-        <v>0.024070166108</v>
+        <v>2.728454707239333</v>
       </c>
       <c r="R2">
-        <v>0.216631494972</v>
+        <v>24.556092365154</v>
       </c>
       <c r="S2">
-        <v>0.005871608348917986</v>
+        <v>0.6863406131329899</v>
       </c>
       <c r="T2">
-        <v>0.005871608348917985</v>
+        <v>0.6863406131329899</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>38.969508</v>
+        <v>37.98277566666666</v>
       </c>
       <c r="H3">
-        <v>116.908524</v>
+        <v>113.948327</v>
       </c>
       <c r="I3">
-        <v>0.688733638790647</v>
+        <v>0.697850645410475</v>
       </c>
       <c r="J3">
-        <v>0.6887336387906469</v>
+        <v>0.6978506454104751</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,33 +620,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.071834</v>
+        <v>0.0002013333333333333</v>
       </c>
       <c r="N3">
-        <v>0.215502</v>
+        <v>0.000604</v>
       </c>
       <c r="O3">
-        <v>0.99147477628764</v>
+        <v>0.002756530787345516</v>
       </c>
       <c r="P3">
-        <v>0.99147477628764</v>
+        <v>0.002756530787345516</v>
       </c>
       <c r="Q3">
-        <v>2.799335637672</v>
+        <v>0.007647198834222222</v>
       </c>
       <c r="R3">
-        <v>25.194020739048</v>
+        <v>0.068824789508</v>
       </c>
       <c r="S3">
-        <v>0.682862030441729</v>
+        <v>0.001923646789042913</v>
       </c>
       <c r="T3">
-        <v>0.6828620304417289</v>
+        <v>0.001923646789042913</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.685730333333334</v>
+        <v>37.98277566666666</v>
       </c>
       <c r="H4">
-        <v>29.057191</v>
+        <v>113.948327</v>
       </c>
       <c r="I4">
-        <v>0.1711822560557247</v>
+        <v>0.697850645410475</v>
       </c>
       <c r="J4">
-        <v>0.1711822560557247</v>
+        <v>0.6978506454104751</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.0006176666666666666</v>
+        <v>0.001003333333333333</v>
       </c>
       <c r="N4">
-        <v>0.001853</v>
+        <v>0.00301</v>
       </c>
       <c r="O4">
-        <v>0.008525223712359965</v>
+        <v>0.01373701600978477</v>
       </c>
       <c r="P4">
-        <v>0.008525223712359965</v>
+        <v>0.01373701600978477</v>
       </c>
       <c r="Q4">
-        <v>0.005982552769222222</v>
+        <v>0.03810938491888888</v>
       </c>
       <c r="R4">
-        <v>0.053842974923</v>
+        <v>0.34298446427</v>
       </c>
       <c r="S4">
-        <v>0.00145936702846154</v>
+        <v>0.009586385488442333</v>
       </c>
       <c r="T4">
-        <v>0.001459367028461539</v>
+        <v>0.009586385488442333</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>29.057191</v>
       </c>
       <c r="I5">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542351</v>
       </c>
       <c r="J5">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542352</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -750,10 +750,10 @@
         <v>0.215502</v>
       </c>
       <c r="O5">
-        <v>0.99147477628764</v>
+        <v>0.9835064532028698</v>
       </c>
       <c r="P5">
-        <v>0.99147477628764</v>
+        <v>0.9835064532028697</v>
       </c>
       <c r="Q5">
         <v>0.6957647527646666</v>
@@ -762,15 +762,15 @@
         <v>6.261882774882</v>
       </c>
       <c r="S5">
-        <v>0.1697228890272632</v>
+        <v>0.1750190705903247</v>
       </c>
       <c r="T5">
-        <v>0.1697228890272632</v>
+        <v>0.1750190705903247</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6067633333333333</v>
+        <v>9.685730333333334</v>
       </c>
       <c r="H6">
-        <v>1.82029</v>
+        <v>29.057191</v>
       </c>
       <c r="I6">
-        <v>0.01072372580252768</v>
+        <v>0.1779541659542351</v>
       </c>
       <c r="J6">
-        <v>0.01072372580252768</v>
+        <v>0.1779541659542352</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,33 +806,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.0006176666666666666</v>
+        <v>0.0002013333333333333</v>
       </c>
       <c r="N6">
-        <v>0.001853</v>
+        <v>0.000604</v>
       </c>
       <c r="O6">
-        <v>0.008525223712359965</v>
+        <v>0.002756530787345516</v>
       </c>
       <c r="P6">
-        <v>0.008525223712359965</v>
+        <v>0.002756530787345516</v>
       </c>
       <c r="Q6">
-        <v>0.0003747774855555555</v>
+        <v>0.001950060373777778</v>
       </c>
       <c r="R6">
-        <v>0.00337299737</v>
+        <v>0.017550543364</v>
       </c>
       <c r="S6">
-        <v>9.142216149655539E-05</v>
+        <v>0.0004905361371892425</v>
       </c>
       <c r="T6">
-        <v>9.142216149655538E-05</v>
+        <v>0.0004905361371892425</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.6067633333333333</v>
+        <v>9.685730333333334</v>
       </c>
       <c r="H7">
-        <v>1.82029</v>
+        <v>29.057191</v>
       </c>
       <c r="I7">
-        <v>0.01072372580252768</v>
+        <v>0.1779541659542351</v>
       </c>
       <c r="J7">
-        <v>0.01072372580252768</v>
+        <v>0.1779541659542352</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,33 +868,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.071834</v>
+        <v>0.001003333333333333</v>
       </c>
       <c r="N7">
-        <v>0.215502</v>
+        <v>0.00301</v>
       </c>
       <c r="O7">
-        <v>0.99147477628764</v>
+        <v>0.01373701600978477</v>
       </c>
       <c r="P7">
-        <v>0.99147477628764</v>
+        <v>0.01373701600978477</v>
       </c>
       <c r="Q7">
-        <v>0.04358623728666666</v>
+        <v>0.009718016101111112</v>
       </c>
       <c r="R7">
-        <v>0.39227613558</v>
+        <v>0.08746214491000001</v>
       </c>
       <c r="S7">
-        <v>0.01063230364103113</v>
+        <v>0.002444559226721224</v>
       </c>
       <c r="T7">
-        <v>0.01063230364103113</v>
+        <v>0.002444559226721224</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.840641000000001</v>
+        <v>0.5676613333333332</v>
       </c>
       <c r="H8">
-        <v>20.521923</v>
+        <v>1.702984</v>
       </c>
       <c r="I8">
-        <v>0.1208991288160603</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="J8">
-        <v>0.1208991288160602</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,33 +930,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.0006176666666666666</v>
+        <v>0.071834</v>
       </c>
       <c r="N8">
-        <v>0.001853</v>
+        <v>0.215502</v>
       </c>
       <c r="O8">
-        <v>0.008525223712359965</v>
+        <v>0.9835064532028698</v>
       </c>
       <c r="P8">
-        <v>0.008525223712359965</v>
+        <v>0.9835064532028697</v>
       </c>
       <c r="Q8">
-        <v>0.004225235924333334</v>
+        <v>0.04077738421866665</v>
       </c>
       <c r="R8">
-        <v>0.038027123319</v>
+        <v>0.366996457968</v>
       </c>
       <c r="S8">
-        <v>0.001030692119786339</v>
+        <v>0.01025751859187605</v>
       </c>
       <c r="T8">
-        <v>0.001030692119786339</v>
+        <v>0.01025751859187605</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.840641000000001</v>
+        <v>0.5676613333333332</v>
       </c>
       <c r="H9">
-        <v>20.521923</v>
+        <v>1.702984</v>
       </c>
       <c r="I9">
-        <v>0.1208991288160603</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="J9">
-        <v>0.1208991288160602</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,33 +992,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.071834</v>
+        <v>0.0002013333333333333</v>
       </c>
       <c r="N9">
-        <v>0.215502</v>
+        <v>0.000604</v>
       </c>
       <c r="O9">
-        <v>0.99147477628764</v>
+        <v>0.002756530787345516</v>
       </c>
       <c r="P9">
-        <v>0.99147477628764</v>
+        <v>0.002756530787345516</v>
       </c>
       <c r="Q9">
-        <v>0.491390605594</v>
+        <v>0.0001142891484444444</v>
       </c>
       <c r="R9">
-        <v>4.422515450346</v>
+        <v>0.001028602336</v>
       </c>
       <c r="S9">
-        <v>0.1198684366962739</v>
+        <v>2.874934445848825E-05</v>
       </c>
       <c r="T9">
-        <v>0.1198684366962739</v>
+        <v>2.874934445848825E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4787493333333333</v>
+        <v>0.5676613333333332</v>
       </c>
       <c r="H10">
-        <v>1.436248</v>
+        <v>1.702984</v>
       </c>
       <c r="I10">
-        <v>0.008461250535040448</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="J10">
-        <v>0.008461250535040448</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,33 +1054,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.0006176666666666666</v>
+        <v>0.001003333333333333</v>
       </c>
       <c r="N10">
-        <v>0.001853</v>
+        <v>0.00301</v>
       </c>
       <c r="O10">
-        <v>0.008525223712359965</v>
+        <v>0.01373701600978477</v>
       </c>
       <c r="P10">
-        <v>0.008525223712359965</v>
+        <v>0.01373701600978477</v>
       </c>
       <c r="Q10">
-        <v>0.0002957075048888889</v>
+        <v>0.0005695535377777777</v>
       </c>
       <c r="R10">
-        <v>0.002661367544</v>
+        <v>0.00512598184</v>
       </c>
       <c r="S10">
-        <v>7.213405369754527E-05</v>
+        <v>0.0001432707397682941</v>
       </c>
       <c r="T10">
-        <v>7.213405369754527E-05</v>
+        <v>0.0001432707397682941</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.4787493333333333</v>
+        <v>5.823095333333334</v>
       </c>
       <c r="H11">
-        <v>1.436248</v>
+        <v>17.469286</v>
       </c>
       <c r="I11">
-        <v>0.008461250535040448</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="J11">
-        <v>0.008461250535040448</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1122,22 +1122,332 @@
         <v>0.215502</v>
       </c>
       <c r="O11">
-        <v>0.99147477628764</v>
+        <v>0.9835064532028698</v>
       </c>
       <c r="P11">
-        <v>0.99147477628764</v>
+        <v>0.9835064532028697</v>
       </c>
       <c r="Q11">
-        <v>0.03439047961066666</v>
+        <v>0.4182962301746667</v>
       </c>
       <c r="R11">
-        <v>0.309514316496</v>
+        <v>3.764666071572</v>
       </c>
       <c r="S11">
-        <v>0.008389116481342902</v>
+        <v>0.1052220842543442</v>
       </c>
       <c r="T11">
-        <v>0.008389116481342902</v>
+        <v>0.1052220842543442</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>5.823095333333334</v>
+      </c>
+      <c r="H12">
+        <v>17.469286</v>
+      </c>
+      <c r="I12">
+        <v>0.1069866739681064</v>
+      </c>
+      <c r="J12">
+        <v>0.1069866739681064</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.0002013333333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.000604</v>
+      </c>
+      <c r="O12">
+        <v>0.002756530787345516</v>
+      </c>
+      <c r="P12">
+        <v>0.002756530787345516</v>
+      </c>
+      <c r="Q12">
+        <v>0.001172383193777778</v>
+      </c>
+      <c r="R12">
+        <v>0.010551448744</v>
+      </c>
+      <c r="S12">
+        <v>0.0002949120606287825</v>
+      </c>
+      <c r="T12">
+        <v>0.0002949120606287824</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>5.823095333333334</v>
+      </c>
+      <c r="H13">
+        <v>17.469286</v>
+      </c>
+      <c r="I13">
+        <v>0.1069866739681064</v>
+      </c>
+      <c r="J13">
+        <v>0.1069866739681064</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.001003333333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.00301</v>
+      </c>
+      <c r="O13">
+        <v>0.01373701600978477</v>
+      </c>
+      <c r="P13">
+        <v>0.01373701600978477</v>
+      </c>
+      <c r="Q13">
+        <v>0.005842505651111112</v>
+      </c>
+      <c r="R13">
+        <v>0.05258255086</v>
+      </c>
+      <c r="S13">
+        <v>0.001469677653133502</v>
+      </c>
+      <c r="T13">
+        <v>0.001469677653133502</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.3689676666666666</v>
+      </c>
+      <c r="H14">
+        <v>1.106903</v>
+      </c>
+      <c r="I14">
+        <v>0.006778975991080511</v>
+      </c>
+      <c r="J14">
+        <v>0.006778975991080512</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.071834</v>
+      </c>
+      <c r="N14">
+        <v>0.215502</v>
+      </c>
+      <c r="O14">
+        <v>0.9835064532028698</v>
+      </c>
+      <c r="P14">
+        <v>0.9835064532028697</v>
+      </c>
+      <c r="Q14">
+        <v>0.02650442336733333</v>
+      </c>
+      <c r="R14">
+        <v>0.238539810306</v>
+      </c>
+      <c r="S14">
+        <v>0.006667166633335002</v>
+      </c>
+      <c r="T14">
+        <v>0.006667166633335002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.3689676666666666</v>
+      </c>
+      <c r="H15">
+        <v>1.106903</v>
+      </c>
+      <c r="I15">
+        <v>0.006778975991080511</v>
+      </c>
+      <c r="J15">
+        <v>0.006778975991080512</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.0002013333333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.000604</v>
+      </c>
+      <c r="O15">
+        <v>0.002756530787345516</v>
+      </c>
+      <c r="P15">
+        <v>0.002756530787345516</v>
+      </c>
+      <c r="Q15">
+        <v>7.428549022222222E-05</v>
+      </c>
+      <c r="R15">
+        <v>0.000668569412</v>
+      </c>
+      <c r="S15">
+        <v>1.868645602608951E-05</v>
+      </c>
+      <c r="T15">
+        <v>1.868645602608951E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.3689676666666666</v>
+      </c>
+      <c r="H16">
+        <v>1.106903</v>
+      </c>
+      <c r="I16">
+        <v>0.006778975991080511</v>
+      </c>
+      <c r="J16">
+        <v>0.006778975991080512</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.001003333333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.00301</v>
+      </c>
+      <c r="O16">
+        <v>0.01373701600978477</v>
+      </c>
+      <c r="P16">
+        <v>0.01373701600978477</v>
+      </c>
+      <c r="Q16">
+        <v>0.0003701975588888888</v>
+      </c>
+      <c r="R16">
+        <v>0.00333177803</v>
+      </c>
+      <c r="S16">
+        <v>9.312290171941957E-05</v>
+      </c>
+      <c r="T16">
+        <v>9.312290171941957E-05</v>
       </c>
     </row>
   </sheetData>
